--- a/StructureDefinition-profile-Encounter.xlsx
+++ b/StructureDefinition-profile-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4031" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="633">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.679136-06:00</t>
+    <t>2026-02-09T22:05:43.0905054-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -426,33 +426,137 @@
     <t>Encounter.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.extension:subjectStatus</t>
+  </si>
+  <si>
+    <t>subjectStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.subjectStatus|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.subjectStatus from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The subjectStatus value can be used to track the patient's status within the encounter. It details whether the patient has arrived or departed, has been triaged or is currently in a waiting status.</t>
+  </si>
+  <si>
+    <t>Element `Encounter.subjectStatus` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.extension:virtualService</t>
+  </si>
+  <si>
+    <t>virtualService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.virtualService|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.virtualService from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Connection details of a virtual service (e.g. conference call).</t>
+  </si>
+  <si>
+    <t>Element `Encounter.virtualService` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t>Encounter.extension:plannedStartDate</t>
+  </si>
+  <si>
+    <t>plannedStartDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedStartDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.plannedStartDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The planned start date/time (or admission date) of the encounter.</t>
+  </si>
+  <si>
+    <t>Element `Encounter.plannedStartDate` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t>Encounter.extension:plannedEndDate</t>
+  </si>
+  <si>
+    <t>plannedEndDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedEndDate|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.plannedEndDate from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The planned end date/time (or discharge date) of the encounter.</t>
+  </si>
+  <si>
+    <t>Element `Encounter.plannedEndDate` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t>Encounter.extension:careTeam</t>
+  </si>
+  <si>
+    <t>careTeam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.careTeam from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Encounter.careTeam` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Encounter.careTeam` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -460,6 +564,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -543,20 +650,13 @@
     <t>Encounter.status.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Encounter.status.extension:status</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.status|0.0.1-snapshot-3}
@@ -569,8 +669,8 @@
     <t>The current state of the encounter (not the state of the patient within the encounter - that is subjectState).</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Note that the target element context `Encounter.status` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `Encounter.status` is mapped to FHIR R4 element `Encounter.status`.</t>
   </si>
   <si>
     <t>Encounter.status.value</t>
@@ -613,6 +713,9 @@
     <t>Encounter.statusHistory.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -689,6 +792,12 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>Encounter.class.extension:class</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.class|0.0.1-snapshot-3}
 </t>
   </si>
@@ -696,6 +805,9 @@
     <t>Cross-version extension for Encounter.class from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `Encounter.class` is mapped to FHIR R4 element `Encounter.class`.</t>
+  </si>
+  <si>
     <t>Encounter.class.system</t>
   </si>
   <si>
@@ -905,6 +1017,12 @@
     <t>Encounter.serviceType.extension</t>
   </si>
   <si>
+    <t>Encounter.serviceType.extension:serviceType</t>
+  </si>
+  <si>
+    <t>serviceType</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.serviceType|0.0.1-snapshot-3}
 </t>
   </si>
@@ -912,6 +1030,9 @@
     <t>Cross-version extension for Encounter.serviceType from R5 for use in FHIR R4</t>
   </si>
   <si>
+    <t>Element `Encounter.serviceType` is mapped to FHIR R4 element `Encounter.serviceType`.</t>
+  </si>
+  <si>
     <t>Encounter.serviceType.coding</t>
   </si>
   <si>
@@ -1064,11 +1185,20 @@
     <t>Encounter.basedOn.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.basedOn|0.0.1-snapshot-3}
-</t>
+    <t>Encounter.basedOn.extension:basedOn</t>
+  </si>
+  <si>
+    <t>basedOn</t>
   </si>
   <si>
     <t>Cross-version extension for Encounter.basedOn from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/MedicationRequest in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Encounter.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Encounter.basedOn` is mapped to FHIR R4 element `Encounter.basedOn`.</t>
   </si>
   <si>
     <t>Encounter.basedOn.reference</t>
@@ -1245,23 +1375,20 @@
     <t>Encounter.participant.individual.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.participant.actor|0.0.1-snapshot-3}
-</t>
+    <t>Encounter.participant.individual.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
   </si>
   <si>
     <t>Cross-version extension for Encounter.participant.actor from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Person involved in the encounter, the patient/group is also included here to indicate that the patient was actually participating in the encounter. Not including the patient here covers use cases such as a case meeting between practitioners about a patient - non contact times.</t>
-  </si>
-  <si>
-    <t>For planning purposes, Appointments may include a CareTeam participant to indicate that one specific person from the CareTeam will be assigned, but that assignment might not happen until the Encounter begins. Hence CareTeam is not included in Encounter.participant, as the specific individual should be assigned and represented as a Practitioner or other person resource.--Similarly, Location can be included in Appointment.participant to assist with planning.  However, the patient location is tracked on the Encounter in the Encounter.location property to allow for additional metadata and history to be recorded.--The role of the participant can be used to declare what the actor will be doing in the scope of this encounter participation.--If the individual is not specified during planning, then it is expected that the individual will be filled in at a later stage prior to the encounter commencing.</t>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Patient in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Encounter.participant.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Encounter.participant.actor` is mapped to FHIR R4 element `Encounter.participant.individual`.</t>
   </si>
   <si>
     <t>Encounter.participant.individual.reference</t>
@@ -1438,6 +1565,12 @@
     <t>Encounter.diagnosis.condition.extension</t>
   </si>
   <si>
+    <t>Encounter.diagnosis.condition.extension:condition</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.diagnosis.condition|0.0.1-snapshot-3}
 </t>
   </si>
@@ -1446,6 +1579,9 @@
   </si>
   <si>
     <t>The coded diagnosis or a reference to a Condition (with other resources referenced in the evidence.detail), the use property will indicate the purpose of this specific diagnosis.</t>
+  </si>
+  <si>
+    <t>Element `Encounter.diagnosis.condition` is mapped to FHIR R4 element `Encounter.diagnosis.condition`.</t>
   </si>
   <si>
     <t>Encounter.diagnosis.condition.reference</t>
@@ -2150,7 +2286,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AN117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2159,9 +2295,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.34765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="15.12109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -3125,7 +3261,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3144,17 +3280,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -3191,16 +3325,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>138</v>
@@ -3221,7 +3353,7 @@
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -3235,43 +3367,43 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -3319,7 +3451,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3328,7 +3460,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -3337,7 +3469,7 @@
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -3348,12 +3480,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3371,18 +3505,20 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
@@ -3431,7 +3567,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3440,22 +3576,22 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -3463,15 +3599,17 @@
         <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>88</v>
@@ -3480,22 +3618,22 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3521,13 +3659,13 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>80</v>
@@ -3545,41 +3683,43 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3600,15 +3740,17 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3657,19 +3799,19 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>80</v>
@@ -3686,18 +3828,20 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="D14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -3712,15 +3856,17 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3757,17 +3903,19 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3796,44 +3944,46 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3881,7 +4031,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3890,7 +4040,7 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>139</v>
@@ -3899,7 +4049,7 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3910,10 +4060,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3924,7 +4074,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3933,16 +4083,16 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3993,39 +4143,39 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4033,31 +4183,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4083,13 +4233,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -4107,13 +4257,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -4122,24 +4272,24 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4162,13 +4312,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4219,7 +4369,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4237,7 +4387,7 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4248,18 +4398,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
@@ -4274,17 +4424,15 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4321,19 +4469,17 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4351,7 +4497,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4362,46 +4508,46 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4449,7 +4595,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4458,7 +4604,7 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>139</v>
@@ -4467,7 +4613,7 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4478,10 +4624,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4489,7 +4635,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>88</v>
@@ -4504,13 +4650,13 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4537,13 +4683,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4561,10 +4707,10 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>88</v>
@@ -4573,13 +4719,13 @@
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4590,10 +4736,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4601,10 +4747,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4616,15 +4762,17 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4673,13 +4821,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4691,7 +4839,7 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4702,10 +4850,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4713,7 +4861,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>88</v>
@@ -4725,16 +4873,16 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4761,13 +4909,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4785,10 +4933,10 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>88</v>
@@ -4797,38 +4945,38 @@
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4840,15 +4988,17 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4897,25 +5047,25 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4926,18 +5076,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
@@ -4946,22 +5096,26 @@
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4997,19 +5151,19 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5027,7 +5181,7 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5038,10 +5192,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5049,10 +5203,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -5064,13 +5218,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5097,13 +5251,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5121,25 +5275,25 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5150,10 +5304,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5161,7 +5315,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -5173,23 +5327,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -5237,10 +5387,10 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -5255,21 +5405,21 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5277,7 +5427,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -5292,17 +5442,15 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5327,13 +5475,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5351,10 +5499,10 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -5369,21 +5517,21 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5403,21 +5551,19 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5465,7 +5611,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5477,27 +5623,27 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5508,7 +5654,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5517,21 +5663,19 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>134</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>135</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5567,53 +5711,55 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>246</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5622,7 +5768,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5631,23 +5777,21 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O31" t="s" s="2">
         <v>252</v>
       </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5695,39 +5839,39 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>203</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>255</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5738,7 +5882,7 @@
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>80</v>
@@ -5747,19 +5891,23 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5807,13 +5955,13 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>80</v>
@@ -5825,21 +5973,21 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5859,18 +6007,20 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5919,7 +6069,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5931,38 +6081,38 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -5971,21 +6121,21 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6033,74 +6183,72 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>174</v>
+        <v>272</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6149,39 +6297,39 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6189,7 +6337,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
@@ -6201,19 +6349,23 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6237,13 +6389,13 @@
         <v>80</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>80</v>
@@ -6261,10 +6413,10 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>88</v>
@@ -6279,21 +6431,21 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>187</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6301,10 +6453,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6316,13 +6468,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6373,13 +6525,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -6391,7 +6543,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6402,10 +6554,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6416,7 +6568,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6425,20 +6577,18 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6463,13 +6613,13 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>275</v>
+        <v>80</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>80</v>
@@ -6487,50 +6637,50 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6539,18 +6689,20 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6575,13 +6727,13 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>80</v>
@@ -6599,71 +6751,75 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>279</v>
+        <v>203</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6711,25 +6867,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6740,10 +6896,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6754,7 +6910,7 @@
         <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6766,13 +6922,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>171</v>
+        <v>299</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6799,49 +6955,49 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6852,10 +7008,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6863,10 +7019,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6878,13 +7034,13 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6935,25 +7091,25 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>174</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6964,10 +7120,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6990,20 +7146,18 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>204</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
@@ -7027,13 +7181,13 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
@@ -7051,7 +7205,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7066,24 +7220,24 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7106,20 +7260,16 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7143,13 +7293,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7167,7 +7317,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7182,24 +7332,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7222,13 +7372,13 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7255,13 +7405,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7279,7 +7429,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7291,38 +7441,38 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>310</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>313</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7331,20 +7481,18 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>134</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7381,43 +7529,43 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>321</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47">
@@ -7425,9 +7573,11 @@
         <v>322</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7445,18 +7595,20 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7505,7 +7657,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7517,31 +7669,31 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7557,19 +7709,23 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>80</v>
       </c>
@@ -7617,7 +7773,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7632,24 +7788,24 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7669,19 +7825,23 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>189</v>
+        <v>336</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7729,7 +7889,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>168</v>
+        <v>340</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7741,27 +7901,27 @@
         <v>80</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>187</v>
+        <v>341</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7769,11 +7929,11 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7784,13 +7944,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>170</v>
+        <v>344</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>171</v>
+        <v>345</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7817,74 +7977,74 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>346</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>174</v>
+        <v>343</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -7893,18 +8053,20 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7953,39 +8115,39 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>174</v>
+        <v>350</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>80</v>
+        <v>358</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7996,7 +8158,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8008,17 +8170,15 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8067,50 +8227,50 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8119,20 +8279,18 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>102</v>
+        <v>369</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8157,13 +8315,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -8181,13 +8339,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8196,10 +8354,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>131</v>
+        <v>373</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -8210,10 +8368,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8233,20 +8391,18 @@
         <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>220</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8295,7 +8451,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8307,13 +8463,13 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>358</v>
+        <v>218</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8324,10 +8480,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8338,7 +8494,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8347,20 +8503,18 @@
         <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8397,37 +8551,37 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>363</v>
+        <v>203</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8438,12 +8592,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8452,7 +8608,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
@@ -8461,18 +8617,20 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8521,7 +8679,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>364</v>
+        <v>203</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8533,27 +8691,27 @@
         <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>369</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8573,18 +8731,20 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>189</v>
+        <v>382</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8633,7 +8793,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>168</v>
+        <v>385</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8642,16 +8802,16 @@
         <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
@@ -8662,21 +8822,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8685,19 +8845,19 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>135</v>
+        <v>388</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>192</v>
+        <v>389</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>137</v>
+        <v>390</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8723,13 +8883,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8747,25 +8907,25 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>174</v>
+        <v>393</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8776,46 +8936,44 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>195</v>
+        <v>395</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>196</v>
+        <v>396</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8863,25 +9021,25 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>197</v>
+        <v>398</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>131</v>
+        <v>399</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
@@ -8892,10 +9050,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8906,7 +9064,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -8918,16 +9076,16 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8953,13 +9111,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>377</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8977,13 +9135,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -8992,24 +9150,24 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>378</v>
+        <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>379</v>
+        <v>131</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9020,7 +9178,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9029,16 +9187,16 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9089,13 +9247,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9104,24 +9262,24 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>385</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9141,16 +9299,16 @@
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>387</v>
+        <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>388</v>
+        <v>220</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>389</v>
+        <v>221</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9201,7 +9359,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>386</v>
+        <v>201</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9213,38 +9371,38 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>391</v>
+        <v>218</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>393</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9256,15 +9414,17 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9313,25 +9473,25 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9342,18 +9502,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -9362,22 +9522,26 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9413,19 +9577,19 @@
         <v>80</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9443,7 +9607,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9454,10 +9618,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9468,7 +9632,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9477,19 +9641,19 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9515,13 +9679,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9539,7 +9703,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>174</v>
+        <v>414</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9551,27 +9715,27 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>80</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9591,20 +9755,18 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>341</v>
+        <v>423</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9653,7 +9815,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>344</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9662,7 +9824,7 @@
         <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>100</v>
@@ -9671,21 +9833,21 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>131</v>
+        <v>425</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9708,17 +9870,15 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>428</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>347</v>
+        <v>429</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9743,13 +9903,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -9767,7 +9927,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>352</v>
+        <v>427</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9782,24 +9942,24 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>131</v>
+        <v>432</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>80</v>
+        <v>433</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9819,20 +9979,18 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>354</v>
+        <v>220</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -9881,7 +10039,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9893,13 +10051,13 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>358</v>
+        <v>218</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
@@ -9910,10 +10068,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9924,7 +10082,7 @@
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -9933,20 +10091,18 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -9983,37 +10139,37 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>363</v>
+        <v>203</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
@@ -10024,12 +10180,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10038,7 +10196,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10047,18 +10205,20 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>405</v>
+        <v>167</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10107,7 +10267,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>404</v>
+        <v>203</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10119,27 +10279,27 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10159,19 +10319,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>412</v>
+        <v>383</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10221,7 +10381,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10230,30 +10390,30 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>415</v>
+        <v>131</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10273,19 +10433,19 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>419</v>
+        <v>102</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10311,13 +10471,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10335,7 +10495,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10350,35 +10510,35 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>414</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>423</v>
+        <v>131</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10390,16 +10550,16 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10425,13 +10585,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -10449,13 +10609,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -10464,35 +10624,35 @@
         <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10504,16 +10664,16 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>437</v>
+        <v>198</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>438</v>
+        <v>401</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>429</v>
+        <v>403</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10563,13 +10723,13 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
@@ -10578,24 +10738,24 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>432</v>
+        <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>433</v>
+        <v>131</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>434</v>
+        <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>435</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10618,13 +10778,13 @@
         <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>183</v>
+        <v>447</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10675,7 +10835,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10690,24 +10850,24 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10730,15 +10890,17 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>189</v>
+        <v>453</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -10787,7 +10949,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>168</v>
+        <v>452</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10799,38 +10961,38 @@
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>187</v>
+        <v>457</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -10842,16 +11004,16 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>134</v>
+        <v>461</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>135</v>
+        <v>462</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>192</v>
+        <v>463</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>137</v>
+        <v>464</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10901,43 +11063,43 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>174</v>
+        <v>460</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>187</v>
+        <v>465</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>194</v>
+        <v>468</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -10950,26 +11112,24 @@
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>195</v>
+        <v>469</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>196</v>
+        <v>470</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -10993,13 +11153,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11017,7 +11177,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>197</v>
+        <v>467</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11029,38 +11189,38 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>131</v>
+        <v>475</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>80</v>
@@ -11072,16 +11232,16 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11131,13 +11291,13 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>80</v>
@@ -11146,24 +11306,24 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>452</v>
+        <v>475</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>434</v>
+        <v>476</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>453</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11174,7 +11334,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11183,16 +11343,16 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>189</v>
+        <v>482</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11243,25 +11403,25 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>168</v>
+        <v>481</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>187</v>
+        <v>484</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11272,10 +11432,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11283,11 +11443,11 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G81" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
       </c>
@@ -11298,13 +11458,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11343,37 +11503,37 @@
         <v>80</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11384,14 +11544,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11410,15 +11570,17 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>456</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>457</v>
+        <v>223</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -11467,7 +11629,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11485,7 +11647,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11496,44 +11658,46 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -11581,19 +11745,19 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>80</v>
@@ -11610,18 +11774,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>460</v>
+        <v>488</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>88</v>
@@ -11636,16 +11800,16 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>102</v>
+        <v>490</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>347</v>
+        <v>491</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>348</v>
+        <v>492</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>349</v>
+        <v>471</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11671,13 +11835,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -11695,10 +11859,10 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>352</v>
+        <v>488</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>88</v>
@@ -11710,24 +11874,24 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>80</v>
+        <v>493</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>131</v>
+        <v>494</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>80</v>
+        <v>495</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11747,20 +11911,18 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>354</v>
+        <v>220</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
@@ -11809,7 +11971,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>357</v>
+        <v>201</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11821,13 +11983,13 @@
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>358</v>
+        <v>218</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -11838,10 +12000,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11852,7 +12014,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -11861,20 +12023,18 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>360</v>
+        <v>134</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -11911,37 +12071,37 @@
         <v>80</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>363</v>
+        <v>203</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
@@ -11952,12 +12112,14 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="D87" t="s" s="2">
         <v>80</v>
       </c>
@@ -11966,7 +12128,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -11978,15 +12140,17 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>269</v>
+        <v>500</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12011,13 +12175,13 @@
         <v>80</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -12035,25 +12199,25 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>463</v>
+        <v>203</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12064,10 +12228,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12087,18 +12251,20 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12147,7 +12313,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>468</v>
+        <v>385</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12156,7 +12322,7 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>100</v>
@@ -12165,7 +12331,7 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>472</v>
+        <v>131</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
@@ -12176,10 +12342,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12190,7 +12356,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12199,19 +12365,19 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>474</v>
+        <v>102</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>477</v>
+        <v>390</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12237,13 +12403,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>80</v>
+        <v>392</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -12261,13 +12427,13 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>473</v>
+        <v>393</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
@@ -12279,7 +12445,7 @@
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>478</v>
+        <v>131</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
@@ -12290,10 +12456,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12313,19 +12479,19 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>480</v>
+        <v>395</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>482</v>
+        <v>397</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12375,7 +12541,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>479</v>
+        <v>398</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12393,7 +12559,7 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>483</v>
+        <v>399</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12404,10 +12570,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>484</v>
+        <v>507</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12427,18 +12593,20 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>189</v>
+        <v>401</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12487,7 +12655,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>168</v>
+        <v>404</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12499,13 +12667,13 @@
         <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>187</v>
+        <v>131</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -12516,21 +12684,21 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -12542,17 +12710,15 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>135</v>
+        <v>509</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -12577,13 +12743,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>512</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -12601,25 +12767,25 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>174</v>
+        <v>508</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -12630,46 +12796,42 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>486</v>
+        <v>513</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>134</v>
+        <v>514</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>195</v>
+        <v>515</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
       </c>
@@ -12717,25 +12879,25 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>197</v>
+        <v>513</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>131</v>
+        <v>517</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
@@ -12746,10 +12908,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12760,7 +12922,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -12772,15 +12934,17 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>146</v>
+        <v>519</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>521</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>522</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -12829,13 +12993,13 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>80</v>
@@ -12847,21 +13011,21 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>150</v>
+        <v>523</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12884,15 +13048,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>492</v>
+        <v>214</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -12941,7 +13107,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12959,7 +13125,7 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
@@ -12970,10 +13136,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12996,13 +13162,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>497</v>
+        <v>220</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>498</v>
+        <v>221</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13029,13 +13195,13 @@
         <v>80</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>80</v>
@@ -13053,7 +13219,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>496</v>
+        <v>201</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13065,38 +13231,38 @@
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>501</v>
+        <v>218</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13108,15 +13274,17 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>504</v>
+        <v>223</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
@@ -13141,13 +13309,13 @@
         <v>80</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>506</v>
+        <v>80</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>80</v>
@@ -13165,43 +13333,43 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>503</v>
+        <v>203</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>508</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13214,25 +13382,25 @@
         <v>80</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>510</v>
+        <v>227</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>511</v>
+        <v>228</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>512</v>
+        <v>175</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>513</v>
+        <v>176</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13257,13 +13425,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>515</v>
+        <v>80</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -13281,7 +13449,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>509</v>
+        <v>229</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13293,27 +13461,27 @@
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>516</v>
+        <v>131</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>517</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13324,7 +13492,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -13336,13 +13504,13 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>269</v>
+        <v>179</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13369,13 +13537,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>521</v>
+        <v>80</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -13393,13 +13561,13 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>80</v>
@@ -13411,21 +13579,21 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>523</v>
+        <v>183</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13436,7 +13604,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
@@ -13448,13 +13616,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>269</v>
+        <v>537</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13481,13 +13649,13 @@
         <v>80</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>528</v>
+        <v>80</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>529</v>
+        <v>80</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
@@ -13505,13 +13673,13 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
@@ -13523,21 +13691,21 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>531</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13560,13 +13728,13 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>492</v>
+        <v>304</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13593,13 +13761,13 @@
         <v>80</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>80</v>
+        <v>544</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -13617,7 +13785,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13635,21 +13803,21 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13672,13 +13840,13 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13705,13 +13873,13 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -13729,7 +13897,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13747,21 +13915,21 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>542</v>
+        <v>218</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13784,18 +13952,20 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O103" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
       </c>
@@ -13819,13 +13989,13 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -13843,7 +14013,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -13861,21 +14031,21 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13886,7 +14056,7 @@
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>80</v>
@@ -13898,13 +14068,13 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>165</v>
+        <v>304</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>189</v>
+        <v>564</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>190</v>
+        <v>565</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13931,13 +14101,13 @@
         <v>80</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>80</v>
+        <v>566</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>80</v>
+        <v>567</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
@@ -13955,43 +14125,43 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>168</v>
+        <v>563</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>187</v>
+        <v>568</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14010,17 +14180,15 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>135</v>
+        <v>571</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -14045,13 +14213,13 @@
         <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
@@ -14069,7 +14237,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>174</v>
+        <v>570</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14081,63 +14249,59 @@
         <v>80</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>187</v>
+        <v>575</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>80</v>
+        <v>576</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>134</v>
+        <v>537</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>195</v>
+        <v>578</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>80</v>
       </c>
@@ -14185,39 +14349,39 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>197</v>
+        <v>577</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>131</v>
+        <v>580</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14225,7 +14389,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>88</v>
@@ -14240,13 +14404,13 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>553</v>
+        <v>304</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14273,13 +14437,13 @@
         <v>80</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>80</v>
+        <v>586</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
@@ -14297,10 +14461,10 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>88</v>
@@ -14312,24 +14476,24 @@
         <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>556</v>
+        <v>80</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>391</v>
+        <v>587</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>558</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14340,7 +14504,7 @@
         <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>80</v>
@@ -14352,16 +14516,16 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14387,13 +14551,13 @@
         <v>80</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>564</v>
+        <v>80</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>80</v>
@@ -14411,13 +14575,13 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>80</v>
@@ -14429,7 +14593,7 @@
         <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>565</v>
+        <v>593</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>80</v>
@@ -14440,10 +14604,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14466,17 +14630,15 @@
         <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>269</v>
+        <v>198</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>567</v>
+        <v>220</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>569</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -14501,13 +14663,13 @@
         <v>80</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>570</v>
+        <v>80</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>571</v>
+        <v>80</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -14525,7 +14687,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>566</v>
+        <v>201</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14537,13 +14699,13 @@
         <v>80</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>80</v>
@@ -14554,21 +14716,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>572</v>
+        <v>595</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>80</v>
@@ -14580,15 +14742,17 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>573</v>
+        <v>223</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -14637,25 +14801,25 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>572</v>
+        <v>203</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>384</v>
+        <v>218</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
@@ -14666,42 +14830,46 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>576</v>
+        <v>133</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>577</v>
+        <v>227</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>80</v>
       </c>
@@ -14749,39 +14917,39 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>575</v>
+        <v>229</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>579</v>
+        <v>131</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14789,7 +14957,7 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>88</v>
@@ -14804,17 +14972,15 @@
         <v>80</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>582</v>
+        <v>598</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>585</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>80</v>
@@ -14863,10 +15029,10 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>581</v>
+        <v>597</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>88</v>
@@ -14878,15 +15044,581 @@
         <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>587</v>
+        <v>432</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>80</v>
+        <v>602</v>
       </c>
       <c r="AN112" t="s" s="2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN117" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Encounter.xlsx
+++ b/StructureDefinition-profile-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4224" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="641">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.0905054-06:00</t>
+    <t>2026-02-17T14:42:26.7963783-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,7 +466,7 @@
     <t>The subjectStatus value can be used to track the patient's status within the encounter. It details whether the patient has arrived or departed, has been triaged or is currently in a waiting status.</t>
   </si>
   <si>
-    <t>Element `Encounter.subjectStatus` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+    <t>Element `Encounter.subjectStatus` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -489,7 +489,7 @@
     <t>Connection details of a virtual service (e.g. conference call).</t>
   </si>
   <si>
-    <t>Element `Encounter.virtualService` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+    <t>Element `Encounter.virtualService` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.extension:plannedStartDate</t>
@@ -508,7 +508,7 @@
     <t>The planned start date/time (or admission date) of the encounter.</t>
   </si>
   <si>
-    <t>Element `Encounter.plannedStartDate` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+    <t>Element `Encounter.plannedStartDate` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.extension:plannedEndDate</t>
@@ -527,7 +527,7 @@
     <t>The planned end date/time (or discharge date) of the encounter.</t>
   </si>
   <si>
-    <t>Element `Encounter.plannedEndDate` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+    <t>Element `Encounter.plannedEndDate` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.extension:careTeam</t>
@@ -547,7 +547,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Encounter.careTeam` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Encounter.careTeam` is will have a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
+Element `Encounter.careTeam` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -670,7 +670,7 @@
   </si>
   <si>
     <t>Note that the target element context `Encounter.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Encounter.status` is mapped to FHIR R4 element `Encounter.status`.</t>
+Element `Encounter.status` has is mapped to FHIR R4 element `Encounter.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.status.value</t>
@@ -805,7 +805,7 @@
     <t>Cross-version extension for Encounter.class from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Encounter.class` is mapped to FHIR R4 element `Encounter.class`.</t>
+    <t>Element `Encounter.class` has is mapped to FHIR R4 element `Encounter.class`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.class.system</t>
@@ -1030,7 +1030,7 @@
     <t>Cross-version extension for Encounter.serviceType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Encounter.serviceType` is mapped to FHIR R4 element `Encounter.serviceType`.</t>
+    <t>Element `Encounter.serviceType` has is mapped to FHIR R4 element `Encounter.serviceType`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.serviceType.coding</t>
@@ -1198,7 +1198,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Encounter.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Encounter.basedOn` is mapped to FHIR R4 element `Encounter.basedOn`.</t>
+Element `Encounter.basedOn` has is mapped to FHIR R4 element `Encounter.basedOn`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.basedOn.reference</t>
@@ -1302,6 +1302,22 @@
     <t>Encounter.participant.extension</t>
   </si>
   <si>
+    <t>Encounter.participant.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.participant|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Encounter.participant` has is mapped to FHIR R4 element `Encounter.participant`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>Encounter.participant.modifierExtension</t>
   </si>
   <si>
@@ -1369,40 +1385,6 @@
     <t>ROL-4</t>
   </si>
   <si>
-    <t>Encounter.participant.individual.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual.extension</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Encounter.participant.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device,http://hl7.org/fhir/StructureDefinition/Group,http://hl7.org/fhir/StructureDefinition/HealthcareService,http://hl7.org/fhir/StructureDefinition/Patient in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Encounter.participant.actor` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Encounter.participant.actor` is mapped to FHIR R4 element `Encounter.participant.individual`.</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual.reference</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual.type</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual.identifier</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual.display</t>
-  </si>
-  <si>
     <t>Encounter.appointment</t>
   </si>
   <si>
@@ -1502,6 +1484,37 @@
     <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
   </si>
   <si>
+    <t>Encounter.reasonCode.id</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.extension</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.extension:reason</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.reason|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.reason from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The list of medical reasons that are expected to be addressed during the episode of care.</t>
+  </si>
+  <si>
+    <t>Element `Encounter.reason` has is mapped to FHIR R4 element `Encounter.reasonCode`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.coding</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode.text</t>
+  </si>
+  <si>
     <t>Encounter.reasonReference</t>
   </si>
   <si>
@@ -1530,6 +1543,22 @@
     <t>Encounter.diagnosis.extension</t>
   </si>
   <si>
+    <t>Encounter.diagnosis.extension:diagnosis</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.diagnosis|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.diagnosis from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Encounter.diagnosis` has is mapped to FHIR R4 element `Encounter.diagnosis`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>Encounter.diagnosis.modifierExtension</t>
   </si>
   <si>
@@ -1557,43 +1586,6 @@
   </si>
   <si>
     <t>Resources that would commonly referenced at Encounter.indication would be Condition and/or Procedure. These most closely align with DG1/PRB and PR1 respectively.</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.condition.id</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.condition.extension</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.condition.extension:condition</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.diagnosis.condition|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Encounter.diagnosis.condition from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The coded diagnosis or a reference to a Condition (with other resources referenced in the evidence.detail), the use property will indicate the purpose of this specific diagnosis.</t>
-  </si>
-  <si>
-    <t>Element `Encounter.diagnosis.condition` is mapped to FHIR R4 element `Encounter.diagnosis.condition`.</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.condition.reference</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.condition.type</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.condition.identifier</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.condition.display</t>
   </si>
   <si>
     <t>Encounter.diagnosis.use</t>
@@ -1669,6 +1661,27 @@
     <t>Encounter.hospitalization.extension</t>
   </si>
   <si>
+    <t>Encounter.hospitalization.extension:admission</t>
+  </si>
+  <si>
+    <t>admission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.admission|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.admission from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Details about the stay during which a healthcare service is provided.++This does not describe the event of admitting the patient, but rather any information that is relevant from the time of admittance until the time of discharge.</t>
+  </si>
+  <si>
+    <t>Element `Encounter.admission` has is mapped to FHIR R4 element `Encounter.hospitalization`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>Encounter.hospitalization.modifierExtension</t>
   </si>
   <si>
@@ -1863,6 +1876,22 @@
   </si>
   <si>
     <t>Encounter.location.extension</t>
+  </si>
+  <si>
+    <t>Encounter.location.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.location|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.location from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Encounter.location` has is mapped to FHIR R4 element `Encounter.location`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.location.modifierExtension</t>
@@ -2286,7 +2315,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN117"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2295,7 +2324,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.66796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.34765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.12109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2305,7 +2334,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -9395,7 +9424,7 @@
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9417,14 +9446,12 @@
         <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9461,16 +9488,14 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>203</v>
@@ -9491,7 +9516,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9505,11 +9530,13 @@
         <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9522,26 +9549,24 @@
         <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>133</v>
+        <v>415</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>227</v>
+        <v>416</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>228</v>
+        <v>407</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9589,7 +9614,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9598,7 +9623,7 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>139</v>
@@ -9607,7 +9632,7 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9618,14 +9643,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9638,24 +9663,26 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>415</v>
+        <v>227</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>416</v>
+        <v>228</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9679,13 +9706,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>416</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9703,7 +9730,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>414</v>
+        <v>229</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9715,27 +9742,27 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>420</v>
+        <v>131</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9746,7 +9773,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9755,18 +9782,20 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9791,13 +9820,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9815,13 +9844,13 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
@@ -9830,7 +9859,7 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>425</v>
@@ -9867,16 +9896,16 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9942,24 +9971,24 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9979,16 +10008,16 @@
         <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>198</v>
+        <v>433</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>220</v>
+        <v>434</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>221</v>
+        <v>435</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10039,7 +10068,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>201</v>
+        <v>432</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10051,27 +10080,27 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>218</v>
+        <v>437</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>80</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10091,16 +10120,16 @@
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>441</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>134</v>
+        <v>442</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>135</v>
+        <v>443</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10139,19 +10168,19 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>203</v>
+        <v>440</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10163,31 +10192,29 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>80</v>
+        <v>372</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>444</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>80</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10208,16 +10235,16 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>167</v>
+        <v>232</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10267,39 +10294,39 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>203</v>
+        <v>446</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10319,19 +10346,19 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>198</v>
+        <v>455</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10381,7 +10408,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>385</v>
+        <v>454</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10390,41 +10417,41 @@
         <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>131</v>
+        <v>459</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>80</v>
@@ -10436,16 +10463,16 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>388</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>389</v>
+        <v>464</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>390</v>
+        <v>465</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10471,13 +10498,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>391</v>
+        <v>466</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>392</v>
+        <v>467</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10495,13 +10522,13 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>80</v>
@@ -10510,24 +10537,24 @@
         <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>131</v>
+        <v>469</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10547,20 +10574,18 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>395</v>
+        <v>220</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10609,7 +10634,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>398</v>
+        <v>201</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10621,13 +10646,13 @@
         <v>80</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>399</v>
+        <v>218</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10638,10 +10663,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10652,7 +10677,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10661,20 +10686,18 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>401</v>
+        <v>134</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10711,37 +10734,37 @@
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>404</v>
+        <v>203</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10752,12 +10775,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10775,18 +10800,20 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
@@ -10835,7 +10862,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>446</v>
+        <v>203</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10847,27 +10874,27 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>451</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10878,7 +10905,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10887,21 +10914,23 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>453</v>
+        <v>328</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>454</v>
+        <v>329</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10949,13 +10978,13 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>452</v>
+        <v>332</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
@@ -10964,24 +10993,24 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>457</v>
+        <v>333</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>459</v>
+        <v>334</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11001,21 +11030,23 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>461</v>
+        <v>198</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>462</v>
+        <v>336</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>463</v>
+        <v>337</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11063,7 +11094,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>460</v>
+        <v>340</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11078,28 +11109,28 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>465</v>
+        <v>341</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>466</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11118,16 +11149,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>304</v>
+        <v>483</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11153,13 +11184,13 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11177,7 +11208,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11192,28 +11223,28 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11232,17 +11263,15 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>479</v>
+        <v>214</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11291,7 +11320,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11306,24 +11335,24 @@
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11334,7 +11363,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11343,16 +11372,16 @@
         <v>80</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>482</v>
+        <v>220</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>483</v>
+        <v>221</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11403,25 +11432,25 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>481</v>
+        <v>201</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>484</v>
+        <v>218</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11432,10 +11461,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11446,7 +11475,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11458,13 +11487,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11503,37 +11532,35 @@
         <v>80</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11544,14 +11571,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11570,16 +11599,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>133</v>
+        <v>493</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>223</v>
+        <v>494</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>224</v>
+        <v>487</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>175</v>
+        <v>495</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11638,7 +11667,7 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>139</v>
@@ -11647,7 +11676,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11658,10 +11687,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11774,14 +11803,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11800,16 +11829,16 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11859,7 +11888,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>88</v>
@@ -11874,24 +11903,24 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11914,13 +11943,13 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>220</v>
+        <v>506</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>221</v>
+        <v>507</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11947,13 +11976,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>80</v>
+        <v>509</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -11971,7 +12000,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>201</v>
+        <v>505</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11983,7 +12012,7 @@
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
@@ -12000,10 +12029,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12014,7 +12043,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12026,13 +12055,13 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>133</v>
+        <v>511</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>134</v>
+        <v>512</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>135</v>
+        <v>513</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12071,37 +12100,37 @@
         <v>80</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>203</v>
+        <v>510</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
@@ -12112,14 +12141,12 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12140,16 +12167,16 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>503</v>
+        <v>519</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12199,7 +12226,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>203</v>
+        <v>515</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12211,13 +12238,13 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>80</v>
+        <v>520</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
@@ -12228,10 +12255,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12251,19 +12278,19 @@
         <v>80</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>383</v>
+        <v>523</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>384</v>
+        <v>524</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -12313,7 +12340,7 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>385</v>
+        <v>521</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12322,7 +12349,7 @@
         <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>100</v>
@@ -12331,7 +12358,7 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>131</v>
+        <v>525</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
@@ -12342,10 +12369,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12365,20 +12392,18 @@
         <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>102</v>
+        <v>198</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>388</v>
+        <v>220</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -12403,13 +12428,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -12427,7 +12452,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>393</v>
+        <v>201</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12439,13 +12464,13 @@
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>131</v>
+        <v>218</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
@@ -12456,10 +12481,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12470,7 +12495,7 @@
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
@@ -12479,20 +12504,18 @@
         <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>395</v>
+        <v>134</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -12529,37 +12552,35 @@
         <v>80</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC90" s="2"/>
       <c r="AD90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>398</v>
+        <v>203</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
@@ -12570,12 +12591,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="D91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12593,19 +12616,19 @@
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>198</v>
+        <v>530</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>401</v>
+        <v>531</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>402</v>
+        <v>532</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>403</v>
+        <v>533</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12655,25 +12678,25 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>404</v>
+        <v>203</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
@@ -12684,42 +12707,46 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>509</v>
+        <v>227</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -12743,13 +12770,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>512</v>
+        <v>80</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -12767,25 +12794,25 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>508</v>
+        <v>229</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
@@ -12796,10 +12823,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12822,13 +12849,13 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>514</v>
+        <v>179</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12879,7 +12906,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12897,21 +12924,21 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>517</v>
+        <v>183</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12922,7 +12949,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -12934,17 +12961,15 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -12993,13 +13018,13 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>80</v>
@@ -13011,7 +13036,7 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
@@ -13022,10 +13047,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13048,17 +13073,15 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>214</v>
+        <v>304</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>527</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13083,13 +13106,13 @@
         <v>80</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
@@ -13107,7 +13130,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13125,21 +13148,21 @@
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>80</v>
+        <v>550</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13162,13 +13185,13 @@
         <v>80</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>220</v>
+        <v>552</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>221</v>
+        <v>553</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13195,13 +13218,13 @@
         <v>80</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>80</v>
+        <v>555</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>80</v>
@@ -13219,7 +13242,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>201</v>
+        <v>551</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13231,7 +13254,7 @@
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
@@ -13243,19 +13266,19 @@
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13274,18 +13297,20 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>223</v>
+        <v>558</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>224</v>
+        <v>559</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>561</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>80</v>
       </c>
@@ -13309,13 +13334,13 @@
         <v>80</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>80</v>
+        <v>562</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>80</v>
+        <v>563</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>80</v>
@@ -13333,7 +13358,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>203</v>
+        <v>557</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13345,31 +13370,31 @@
         <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>218</v>
+        <v>564</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>80</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13382,26 +13407,22 @@
         <v>80</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>227</v>
+        <v>567</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
       </c>
@@ -13425,13 +13446,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -13449,7 +13470,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>229</v>
+        <v>566</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13461,27 +13482,27 @@
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>131</v>
+        <v>571</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>80</v>
+        <v>572</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13492,7 +13513,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -13504,13 +13525,13 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13537,13 +13558,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>80</v>
+        <v>576</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -13561,13 +13582,13 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>532</v>
+        <v>573</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>80</v>
@@ -13579,21 +13600,21 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>183</v>
+        <v>578</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>535</v>
+        <v>579</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13616,13 +13637,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13673,7 +13694,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>536</v>
+        <v>580</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13691,21 +13712,21 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>80</v>
+        <v>584</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13731,10 +13752,10 @@
         <v>304</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>542</v>
+        <v>586</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>543</v>
+        <v>587</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13761,13 +13782,13 @@
         <v>80</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>112</v>
+        <v>308</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>544</v>
+        <v>588</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -13785,7 +13806,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>541</v>
+        <v>585</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13803,21 +13824,21 @@
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>546</v>
+        <v>590</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>547</v>
+        <v>591</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13828,7 +13849,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>80</v>
@@ -13840,15 +13861,17 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>549</v>
+        <v>593</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -13873,13 +13896,13 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>551</v>
+        <v>80</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>552</v>
+        <v>80</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -13897,13 +13920,13 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>548</v>
+        <v>592</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>80</v>
@@ -13915,21 +13938,21 @@
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>218</v>
+        <v>596</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>553</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13940,7 +13963,7 @@
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>80</v>
@@ -13952,20 +13975,16 @@
         <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>304</v>
+        <v>198</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>555</v>
+        <v>220</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>80</v>
       </c>
@@ -13989,13 +14008,13 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>559</v>
+        <v>80</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -14013,39 +14032,39 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>554</v>
+        <v>201</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>561</v>
+        <v>218</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14068,13 +14087,13 @@
         <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>564</v>
+        <v>134</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>565</v>
+        <v>135</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14101,31 +14120,29 @@
         <v>80</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>566</v>
+        <v>80</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC104" s="2"/>
       <c r="AD104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>563</v>
+        <v>203</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14137,29 +14154,31 @@
         <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>569</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="D105" t="s" s="2">
         <v>80</v>
       </c>
@@ -14180,15 +14199,17 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>304</v>
+        <v>601</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>571</v>
+        <v>602</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N105" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -14213,13 +14234,13 @@
         <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>574</v>
+        <v>80</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
@@ -14237,7 +14258,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>570</v>
+        <v>203</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14246,62 +14267,66 @@
         <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>575</v>
+        <v>80</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>576</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>537</v>
+        <v>133</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>578</v>
+        <v>227</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
       </c>
@@ -14349,39 +14374,39 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>577</v>
+        <v>229</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>580</v>
+        <v>131</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14389,7 +14414,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>88</v>
@@ -14404,13 +14429,13 @@
         <v>80</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>304</v>
+        <v>606</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>583</v>
+        <v>607</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>584</v>
+        <v>608</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14437,13 +14462,13 @@
         <v>80</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>585</v>
+        <v>80</v>
       </c>
       <c r="Z107" t="s" s="2">
-        <v>586</v>
+        <v>80</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>80</v>
@@ -14461,10 +14486,10 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>88</v>
@@ -14476,24 +14501,24 @@
         <v>100</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>587</v>
+        <v>437</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>588</v>
+        <v>611</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14504,7 +14529,7 @@
         <v>78</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>80</v>
@@ -14516,16 +14541,16 @@
         <v>80</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>591</v>
+        <v>614</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14551,13 +14576,13 @@
         <v>80</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>80</v>
+        <v>616</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>80</v>
+        <v>617</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>80</v>
@@ -14575,13 +14600,13 @@
         <v>80</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>80</v>
@@ -14593,7 +14618,7 @@
         <v>80</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>593</v>
+        <v>618</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>80</v>
@@ -14604,10 +14629,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>594</v>
+        <v>619</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14630,15 +14655,17 @@
         <v>80</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>220</v>
+        <v>620</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N109" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>622</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>80</v>
@@ -14663,13 +14690,13 @@
         <v>80</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>80</v>
+        <v>623</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>80</v>
+        <v>624</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>80</v>
@@ -14687,7 +14714,7 @@
         <v>80</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>201</v>
+        <v>619</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -14699,13 +14726,13 @@
         <v>80</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>80</v>
@@ -14716,21 +14743,21 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>595</v>
+        <v>625</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>80</v>
@@ -14742,17 +14769,15 @@
         <v>80</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>223</v>
+        <v>626</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
         <v>80</v>
@@ -14801,25 +14826,25 @@
         <v>80</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>203</v>
+        <v>625</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>218</v>
+        <v>430</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>80</v>
@@ -14830,46 +14855,42 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>133</v>
+        <v>629</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>227</v>
+        <v>630</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>80</v>
       </c>
@@ -14917,39 +14938,39 @@
         <v>80</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>229</v>
+        <v>628</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>80</v>
+        <v>436</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>131</v>
+        <v>632</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>80</v>
+        <v>633</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14957,7 +14978,7 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>88</v>
@@ -14972,15 +14993,17 @@
         <v>80</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N112" s="2"/>
+        <v>637</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>80</v>
@@ -15029,10 +15052,10 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>597</v>
+        <v>634</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>88</v>
@@ -15044,581 +15067,15 @@
         <v>100</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>432</v>
+        <v>640</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>602</v>
+        <v>80</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN117" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/StructureDefinition-profile-Encounter.xlsx
+++ b/StructureDefinition-profile-Encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.7963783-06:00</t>
+    <t>2026-02-20T11:59:20.7948049-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -456,7 +456,7 @@
     <t>subjectStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.subjectStatus|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.subjectStatus}
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.virtualService|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.virtualService}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>plannedStartDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedStartDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedStartDate}
 </t>
   </si>
   <si>
@@ -517,7 +517,7 @@
     <t>plannedEndDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedEndDate|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedEndDate}
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
     <t>careTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -659,7 +659,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.status|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.status}
 </t>
   </si>
   <si>
@@ -771,7 +771,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -798,7 +798,7 @@
     <t>class</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.class|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.class}
 </t>
   </si>
   <si>
@@ -1023,7 +1023,7 @@
     <t>serviceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.serviceType|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.serviceType}
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1308,7 +1308,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.participant}
 </t>
   </si>
   <si>
@@ -1496,7 +1496,7 @@
     <t>reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.reason|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.reason}
 </t>
   </si>
   <si>
@@ -1549,7 +1549,7 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.diagnosis|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.diagnosis}
 </t>
   </si>
   <si>
@@ -1667,7 +1667,7 @@
     <t>admission</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.admission|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.admission}
 </t>
   </si>
   <si>
@@ -1746,7 +1746,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1884,7 +1884,7 @@
     <t>location</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.location|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.location}
 </t>
   </si>
   <si>
@@ -2334,7 +2334,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-Encounter.xlsx
+++ b/StructureDefinition-profile-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7948049-06:00</t>
+    <t>2026-02-21T13:36:54.2099871-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Encounter|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -456,7 +456,7 @@
     <t>subjectStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.subjectStatus}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.subjectStatus|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.virtualService}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.virtualService|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -498,7 +498,7 @@
     <t>plannedStartDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedStartDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedStartDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -517,7 +517,7 @@
     <t>plannedEndDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedEndDate}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.plannedEndDate|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -528,26 +528,6 @@
   </si>
   <si>
     <t>Element `Encounter.plannedEndDate` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
-  </si>
-  <si>
-    <t>Encounter.extension:careTeam</t>
-  </si>
-  <si>
-    <t>careTeam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Encounter.careTeam from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Encounter.careTeam` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Encounter.careTeam` has a context of Encounter based on following the parent source element upwards and mapping to `Encounter`.</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -659,7 +639,7 @@
     <t>status</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.status}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.status|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -670,7 +650,7 @@
   </si>
   <si>
     <t>Note that the target element context `Encounter.status` is a modifier element, so this extension does not need to be defined as a modifier.
-Element `Encounter.status` has is mapped to FHIR R4 element `Encounter.status`, but has no comparisons.</t>
+Element `Encounter.status` is mapped to FHIR R4 element `Encounter.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Encounter.status.value</t>
@@ -771,7 +751,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
@@ -798,14 +778,14 @@
     <t>class</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.class}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.class|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Encounter.class from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Encounter.class` has is mapped to FHIR R4 element `Encounter.class`, but has no comparisons.</t>
+    <t>Element `Encounter.class` is mapped to FHIR R4 element `Encounter.class` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Encounter.class.system</t>
@@ -1023,14 +1003,14 @@
     <t>serviceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.serviceType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.serviceType|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
     <t>Cross-version extension for Encounter.serviceType from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `Encounter.serviceType` has is mapped to FHIR R4 element `Encounter.serviceType`, but has no comparisons.</t>
+    <t>Element `Encounter.serviceType` is mapped to FHIR R4 element `Encounter.serviceType` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Encounter.serviceType.coding</t>
@@ -1090,7 +1070,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -1179,29 +1159,279 @@
     <t>.reason.ClinicalDocument</t>
   </si>
   <si>
-    <t>Encounter.basedOn.id</t>
-  </si>
-  <si>
-    <t>Encounter.basedOn.extension</t>
-  </si>
-  <si>
-    <t>Encounter.basedOn.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Encounter.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/MedicationRequest in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Encounter.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Encounter.basedOn` has is mapped to FHIR R4 element `Encounter.basedOn`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Encounter.basedOn.reference</t>
+    <t>Encounter.participant</t>
+  </si>
+  <si>
+    <t>List of participants involved in the encounter</t>
+  </si>
+  <si>
+    <t>The list of people responsible for providing the service.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PFM]</t>
+  </si>
+  <si>
+    <t>ROL</t>
+  </si>
+  <si>
+    <t>Encounter.participant.id</t>
+  </si>
+  <si>
+    <t>Encounter.participant.extension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.participant.type</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter</t>
+  </si>
+  <si>
+    <t>Role of participant in encounter.</t>
+  </si>
+  <si>
+    <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.performer.function</t>
+  </si>
+  <si>
+    <t>.functionCode</t>
+  </si>
+  <si>
+    <t>ROL-3 (or maybe PRT-4)</t>
+  </si>
+  <si>
+    <t>Encounter.participant.period</t>
+  </si>
+  <si>
+    <t>Period of time during the encounter that the participant participated</t>
+  </si>
+  <si>
+    <t>The period of time that the specified participant participated in the encounter. These can overlap or be sub-sets of the overall encounter's period.</t>
+  </si>
+  <si>
+    <t>.time</t>
+  </si>
+  <si>
+    <t>ROL-5, ROL-6 (or maybe PRT-5)</t>
+  </si>
+  <si>
+    <t>Encounter.participant.individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Persons involved in the encounter other than the patient</t>
+  </si>
+  <si>
+    <t>Persons involved in the encounter other than the patient.</t>
+  </si>
+  <si>
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>.role</t>
+  </si>
+  <si>
+    <t>FiveWs.who</t>
+  </si>
+  <si>
+    <t>ROL-4</t>
+  </si>
+  <si>
+    <t>Encounter.appointment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The appointment that scheduled this encounter</t>
+  </si>
+  <si>
+    <t>The appointment that scheduled this encounter.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
+  </si>
+  <si>
+    <t>SCH-1 / SCH-2</t>
+  </si>
+  <si>
+    <t>Encounter.period</t>
+  </si>
+  <si>
+    <t>The start and end time of the encounter</t>
+  </si>
+  <si>
+    <t>The start and end time of the encounter.</t>
+  </si>
+  <si>
+    <t>If not (yet) known, the end of the Period may be omitted.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime (low &amp; high)</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>PV1-44, PV1-45</t>
+  </si>
+  <si>
+    <t>Encounter.length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration
+</t>
+  </si>
+  <si>
+    <t>Quantity of time the encounter lasted (less time absent)</t>
+  </si>
+  <si>
+    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
+  </si>
+  <si>
+    <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
+  </si>
+  <si>
+    <t>.lengthOfStayQuantity</t>
+  </si>
+  <si>
+    <t>(PV1-45 less PV1-44) iff ( (PV1-44 not empty) and (PV1-45 not empty) ); units in minutes</t>
+  </si>
+  <si>
+    <t>Encounter.reasonCode</t>
+  </si>
+  <si>
+    <t>Indication
+Admission diagnosis</t>
+  </si>
+  <si>
+    <t>Coded reason the encounter takes place</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+  </si>
+  <si>
+    <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
+  </si>
+  <si>
+    <t>Reason why the encounter takes place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.reasonCode</t>
+  </si>
+  <si>
+    <t>.reasonCode</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
+  </si>
+  <si>
+    <t>Encounter.reasonReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place (reference)</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis</t>
+  </si>
+  <si>
+    <t>The list of diagnosis relevant to this encounter</t>
+  </si>
+  <si>
+    <t>The list of diagnosis relevant to this encounter.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.id</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.extension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.condition</t>
+  </si>
+  <si>
+    <t>Admission diagnosis
+discharge diagnosisindication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>The diagnosis or procedure relevant to the encounter</t>
+  </si>
+  <si>
+    <t>Reason the encounter takes place, as specified using information from another resource. For admissions, this is the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON].target</t>
+  </si>
+  <si>
+    <t>Resources that would commonly referenced at Encounter.indication would be Condition and/or Procedure. These most closely align with DG1/PRB and PR1 respectively.</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.condition.id</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.condition.extension</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.condition.extension:condition</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.diagnosis.condition|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Encounter.diagnosis.condition from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The coded diagnosis or a reference to a Condition (with other resources referenced in the evidence.detail), the use property will indicate the purpose of this specific diagnosis.</t>
+  </si>
+  <si>
+    <t>Element `Encounter.diagnosis.condition` is mapped to FHIR R4 element `Encounter.diagnosis.condition` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>Encounter.diagnosis.condition.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -1220,7 +1450,7 @@
 </t>
   </si>
   <si>
-    <t>Encounter.basedOn.type</t>
+    <t>Encounter.diagnosis.condition.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -1242,7 +1472,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>Encounter.basedOn.identifier</t>
+    <t>Encounter.diagnosis.condition.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1263,7 +1493,7 @@
     <t>.identifier</t>
   </si>
   <si>
-    <t>Encounter.basedOn.display</t>
+    <t>Encounter.diagnosis.condition.display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -1276,316 +1506,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Encounter.participant</t>
-  </si>
-  <si>
-    <t>List of participants involved in the encounter</t>
-  </si>
-  <si>
-    <t>The list of people responsible for providing the service.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PFM]</t>
-  </si>
-  <si>
-    <t>ROL</t>
-  </si>
-  <si>
-    <t>Encounter.participant.id</t>
-  </si>
-  <si>
-    <t>Encounter.participant.extension</t>
-  </si>
-  <si>
-    <t>Encounter.participant.extension:participant</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.participant}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Encounter.participant from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Encounter.participant` has is mapped to FHIR R4 element `Encounter.participant`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Encounter.participant.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.participant.type</t>
-  </si>
-  <si>
-    <t>Role of participant in encounter</t>
-  </si>
-  <si>
-    <t>Role of participant in encounter.</t>
-  </si>
-  <si>
-    <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.performer.function</t>
-  </si>
-  <si>
-    <t>.functionCode</t>
-  </si>
-  <si>
-    <t>ROL-3 (or maybe PRT-4)</t>
-  </si>
-  <si>
-    <t>Encounter.participant.period</t>
-  </si>
-  <si>
-    <t>Period of time during the encounter that the participant participated</t>
-  </si>
-  <si>
-    <t>The period of time that the specified participant participated in the encounter. These can overlap or be sub-sets of the overall encounter's period.</t>
-  </si>
-  <si>
-    <t>.time</t>
-  </si>
-  <si>
-    <t>ROL-5, ROL-6 (or maybe PRT-5)</t>
-  </si>
-  <si>
-    <t>Encounter.participant.individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Persons involved in the encounter other than the patient</t>
-  </si>
-  <si>
-    <t>Persons involved in the encounter other than the patient.</t>
-  </si>
-  <si>
-    <t>Event.performer.actor</t>
-  </si>
-  <si>
-    <t>.role</t>
-  </si>
-  <si>
-    <t>FiveWs.who</t>
-  </si>
-  <si>
-    <t>ROL-4</t>
-  </si>
-  <si>
-    <t>Encounter.appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Appointment|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>The appointment that scheduled this encounter</t>
-  </si>
-  <si>
-    <t>The appointment that scheduled this encounter.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
-  </si>
-  <si>
-    <t>SCH-1 / SCH-2</t>
-  </si>
-  <si>
-    <t>Encounter.period</t>
-  </si>
-  <si>
-    <t>The start and end time of the encounter</t>
-  </si>
-  <si>
-    <t>The start and end time of the encounter.</t>
-  </si>
-  <si>
-    <t>If not (yet) known, the end of the Period may be omitted.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime (low &amp; high)</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>PV1-44, PV1-45</t>
-  </si>
-  <si>
-    <t>Encounter.length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration
-</t>
-  </si>
-  <si>
-    <t>Quantity of time the encounter lasted (less time absent)</t>
-  </si>
-  <si>
-    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
-  </si>
-  <si>
-    <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
-  </si>
-  <si>
-    <t>.lengthOfStayQuantity</t>
-  </si>
-  <si>
-    <t>(PV1-45 less PV1-44) iff ( (PV1-44 not empty) and (PV1-45 not empty) ); units in minutes</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode</t>
-  </si>
-  <si>
-    <t>Indication
-Admission diagnosis</t>
-  </si>
-  <si>
-    <t>Coded reason the encounter takes place</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
-  </si>
-  <si>
-    <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
-  </si>
-  <si>
-    <t>Reason why the encounter takes place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.reasonCode</t>
-  </si>
-  <si>
-    <t>.reasonCode</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>EVN-4 / PV2-3 (note: PV2-3 is nominally constrained to inpatient admissions; HL7 v2 makes no vocabulary suggestions for PV2-3; would not expect PV2 segment or PV2-3 to be in use in all implementations )</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.id</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.extension</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.extension:reason</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.reason}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Encounter.reason from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The list of medical reasons that are expected to be addressed during the episode of care.</t>
-  </si>
-  <si>
-    <t>Element `Encounter.reason` has is mapped to FHIR R4 element `Encounter.reasonCode`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.coding</t>
-  </si>
-  <si>
-    <t>Encounter.reasonCode.text</t>
-  </si>
-  <si>
-    <t>Encounter.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place (reference)</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis</t>
-  </si>
-  <si>
-    <t>The list of diagnosis relevant to this encounter</t>
-  </si>
-  <si>
-    <t>The list of diagnosis relevant to this encounter.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.id</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.extension</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.extension:diagnosis</t>
-  </si>
-  <si>
-    <t>diagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.diagnosis}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Encounter.diagnosis from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Encounter.diagnosis` has is mapped to FHIR R4 element `Encounter.diagnosis`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.diagnosis.condition</t>
-  </si>
-  <si>
-    <t>Admission diagnosis
-discharge diagnosisindication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>The diagnosis or procedure relevant to the encounter</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, as specified using information from another resource. For admissions, this is the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.</t>
-  </si>
-  <si>
-    <t>Event.reasonReference</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON].target</t>
-  </si>
-  <si>
-    <t>Resources that would commonly referenced at Encounter.indication would be Condition and/or Procedure. These most closely align with DG1/PRB and PR1 respectively.</t>
   </si>
   <si>
     <t>Encounter.diagnosis.use</t>
@@ -1661,27 +1581,6 @@
     <t>Encounter.hospitalization.extension</t>
   </si>
   <si>
-    <t>Encounter.hospitalization.extension:admission</t>
-  </si>
-  <si>
-    <t>admission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.admission}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Encounter.admission from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Details about the stay during which a healthcare service is provided.--This does not describe the event of admitting the patient, but rather any information that is relevant from the time of admittance until the time of discharge.</t>
-  </si>
-  <si>
-    <t>Element `Encounter.admission` has is mapped to FHIR R4 element `Encounter.hospitalization`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>Encounter.hospitalization.modifierExtension</t>
   </si>
   <si>
@@ -1746,7 +1645,7 @@
     <t>The reason for re-admission of this hospitalization encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0092</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0092|2.0.0</t>
   </si>
   <si>
     <t>PV1-13</t>
@@ -1876,22 +1775,6 @@
   </si>
   <si>
     <t>Encounter.location.extension</t>
-  </si>
-  <si>
-    <t>Encounter.location.extension:location</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Encounter.location}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Encounter.location from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Encounter.location` has is mapped to FHIR R4 element `Encounter.location`, but has no comparisons.</t>
   </si>
   <si>
     <t>Encounter.location.modifierExtension</t>
@@ -2315,7 +2198,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN112"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2324,7 +2207,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.34765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.66796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.34765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="15.12109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2334,7 +2217,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.91796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3860,13 +3743,11 @@
         <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3879,24 +3760,26 @@
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3944,7 +3827,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3962,7 +3845,7 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3973,14 +3856,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3993,26 +3876,22 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J15" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4060,7 +3939,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4072,27 +3951,27 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4100,30 +3979,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4148,13 +4029,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -4172,13 +4053,13 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -4187,24 +4068,24 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4212,7 +4093,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>88</v>
@@ -4221,23 +4102,21 @@
         <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4262,13 +4141,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -4286,10 +4165,10 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>88</v>
@@ -4298,27 +4177,27 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>196</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4326,10 +4205,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -4341,13 +4220,13 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4386,31 +4265,29 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4427,12 +4304,14 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4441,7 +4320,7 @@
         <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4453,15 +4332,17 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4498,17 +4379,19 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4517,7 +4400,7 @@
         <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>139</v>
@@ -4540,17 +4423,15 @@
         <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>88</v>
@@ -4565,17 +4446,15 @@
         <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4624,19 +4503,19 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4653,10 +4532,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4667,7 +4546,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4679,15 +4558,17 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4736,25 +4617,25 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4779,7 +4660,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4791,17 +4672,15 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>217</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4850,25 +4729,25 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4879,21 +4758,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4905,15 +4784,17 @@
         <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4962,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>80</v>
@@ -4991,14 +4872,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5011,24 +4892,26 @@
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -5076,7 +4959,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5094,7 +4977,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -5105,46 +4988,42 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5168,13 +5047,13 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
@@ -5192,25 +5071,25 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
@@ -5221,10 +5100,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5247,13 +5126,13 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5280,13 +5159,13 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
@@ -5304,7 +5183,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -5322,7 +5201,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -5333,10 +5212,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5356,16 +5235,16 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5392,13 +5271,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5416,7 +5295,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>88</v>
@@ -5434,21 +5313,21 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>80</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5456,7 +5335,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>88</v>
@@ -5468,16 +5347,16 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5504,13 +5383,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5528,10 +5407,10 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>88</v>
@@ -5540,27 +5419,27 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>244</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5571,7 +5450,7 @@
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -5583,13 +5462,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5628,37 +5507,37 @@
         <v>80</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5669,12 +5548,14 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="D30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5695,15 +5576,17 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5740,19 +5623,19 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5781,14 +5664,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5797,7 +5678,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5806,21 +5687,23 @@
         <v>80</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5868,39 +5751,39 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5923,20 +5806,18 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>102</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5984,7 +5865,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6002,21 +5883,21 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6039,18 +5920,18 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N33" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="O33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6098,7 +5979,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6116,21 +5997,21 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6153,17 +6034,17 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6212,7 +6093,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6230,21 +6111,21 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6267,17 +6148,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>198</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O35" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6326,7 +6209,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6344,21 +6227,21 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6369,7 +6252,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6378,23 +6261,19 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O36" t="s" s="2">
         <v>287</v>
       </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6442,13 +6321,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6460,21 +6339,21 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>289</v>
+        <v>212</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6485,7 +6364,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
@@ -6497,13 +6376,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>215</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6554,25 +6433,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6583,21 +6462,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6609,15 +6488,17 @@
         <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6666,25 +6547,25 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6695,14 +6576,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6715,24 +6596,26 @@
         <v>80</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
@@ -6780,7 +6663,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6798,7 +6681,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6809,46 +6692,42 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6872,13 +6751,13 @@
         <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>80</v>
+        <v>235</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>80</v>
@@ -6896,25 +6775,25 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6925,10 +6804,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6951,13 +6830,13 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6984,13 +6863,13 @@
         <v>80</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7008,7 +6887,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -7026,7 +6905,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -7037,10 +6916,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7048,10 +6927,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -7060,18 +6939,20 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -7096,13 +6977,13 @@
         <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>80</v>
@@ -7120,13 +7001,13 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
@@ -7135,24 +7016,24 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>218</v>
+        <v>306</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>237</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7163,7 +7044,7 @@
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7175,17 +7056,15 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7210,37 +7089,37 @@
         <v>80</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
@@ -7249,13 +7128,13 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>313</v>
@@ -7286,16 +7165,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>304</v>
+        <v>192</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>315</v>
+        <v>214</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7322,13 +7201,13 @@
         <v>80</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>80</v>
@@ -7346,7 +7225,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>314</v>
+        <v>195</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7358,27 +7237,27 @@
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>311</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7389,7 +7268,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7401,13 +7280,13 @@
         <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>135</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7446,37 +7325,37 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7487,12 +7366,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7513,15 +7394,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>134</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7558,19 +7441,19 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7599,14 +7482,12 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="C47" t="s" s="2">
-        <v>323</v>
-      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7624,21 +7505,23 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -7686,7 +7569,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7698,27 +7581,27 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7729,7 +7612,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7741,19 +7624,19 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7802,13 +7685,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7820,21 +7703,21 @@
         <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7854,23 +7737,19 @@
         <v>80</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O49" t="s" s="2">
         <v>339</v>
       </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7894,13 +7773,13 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7918,7 +7797,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7939,22 +7818,22 @@
         <v>341</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>80</v>
+        <v>342</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7970,18 +7849,20 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8006,13 +7887,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -8030,7 +7911,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8045,35 +7926,35 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>80</v>
@@ -8085,17 +7966,15 @@
         <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8144,13 +8023,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -8159,28 +8038,28 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>357</v>
+        <v>212</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8196,16 +8075,16 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8256,7 +8135,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8271,28 +8150,28 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>218</v>
+        <v>367</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8308,16 +8187,16 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8368,7 +8247,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8383,16 +8262,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="54">
@@ -8423,13 +8302,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8480,7 +8359,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8498,7 +8377,7 @@
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8516,7 +8395,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8538,12 +8417,14 @@
         <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>134</v>
+        <v>217</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8580,19 +8461,19 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8610,7 +8491,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8624,43 +8505,43 @@
         <v>376</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>379</v>
+        <v>222</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8708,7 +8589,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8726,7 +8607,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8737,10 +8618,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8751,7 +8632,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
@@ -8763,16 +8644,16 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8798,13 +8679,13 @@
         <v>80</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>80</v>
+        <v>381</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>80</v>
@@ -8822,39 +8703,39 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>131</v>
+        <v>383</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>80</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8874,20 +8755,18 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>102</v>
+        <v>226</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8912,13 +8791,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8936,7 +8815,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8954,21 +8833,21 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>131</v>
+        <v>388</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8991,17 +8870,15 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>179</v>
+        <v>391</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9050,7 +8927,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9065,24 +8942,24 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9093,7 +8970,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9105,17 +8982,15 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>198</v>
+        <v>399</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9164,13 +9039,13 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -9179,24 +9054,24 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>131</v>
+        <v>402</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>80</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9207,7 +9082,7 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9216,18 +9091,20 @@
         <v>80</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9276,13 +9153,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9297,18 +9174,18 @@
         <v>409</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9331,15 +9208,17 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>198</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>220</v>
+        <v>414</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9388,7 +9267,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>201</v>
+        <v>412</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9400,31 +9279,31 @@
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>218</v>
+        <v>417</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9440,18 +9319,20 @@
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>134</v>
+        <v>421</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9476,29 +9357,31 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>80</v>
+        <v>425</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9510,33 +9393,31 @@
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9552,19 +9433,19 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9614,7 +9495,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>203</v>
+        <v>430</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9623,34 +9504,34 @@
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>427</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9663,26 +9544,22 @@
         <v>80</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>227</v>
+        <v>434</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9730,7 +9607,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>229</v>
+        <v>433</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9742,13 +9619,13 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>131</v>
+        <v>436</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>80</v>
@@ -9759,10 +9636,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9773,7 +9650,7 @@
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9782,20 +9659,18 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>304</v>
+        <v>192</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>420</v>
+        <v>214</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9820,13 +9695,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>423</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -9844,50 +9719,50 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>419</v>
+        <v>195</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>424</v>
+        <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>425</v>
+        <v>212</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9899,15 +9774,17 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>428</v>
+        <v>217</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9956,71 +9833,75 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>427</v>
+        <v>197</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>430</v>
+        <v>212</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>433</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>434</v>
+        <v>221</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10068,31 +9949,31 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>432</v>
+        <v>223</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>437</v>
+        <v>131</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>439</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
@@ -10104,14 +9985,14 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>80</v>
@@ -10123,15 +10004,17 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10183,10 +10066,10 @@
         <v>440</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
@@ -10195,24 +10078,24 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>372</v>
+        <v>445</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>428</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10235,17 +10118,15 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>214</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10294,7 +10175,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10306,27 +10187,27 @@
         <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>451</v>
+        <v>212</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10337,7 +10218,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>80</v>
@@ -10349,17 +10230,15 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>455</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>456</v>
+        <v>134</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10396,55 +10275,57 @@
         <v>80</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>454</v>
+        <v>197</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="D72" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10460,19 +10341,19 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>304</v>
+        <v>452</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10498,13 +10379,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10522,7 +10403,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>461</v>
+        <v>197</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10534,27 +10415,27 @@
         <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10574,18 +10455,20 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>220</v>
+        <v>457</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -10634,7 +10517,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>201</v>
+        <v>460</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10643,16 +10526,16 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10663,10 +10546,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10677,7 +10560,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -10686,18 +10569,20 @@
         <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>134</v>
+        <v>463</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -10722,49 +10607,49 @@
         <v>80</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>203</v>
+        <v>468</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>80</v>
@@ -10775,14 +10660,12 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>80</v>
       </c>
@@ -10791,7 +10674,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -10800,19 +10683,19 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>476</v>
+        <v>173</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10862,25 +10745,25 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>203</v>
+        <v>473</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>
@@ -10891,10 +10774,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10905,7 +10788,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -10917,20 +10800,18 @@
         <v>89</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>328</v>
+        <v>476</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>329</v>
+        <v>477</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -10978,13 +10859,13 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>332</v>
+        <v>479</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
@@ -10996,21 +10877,21 @@
         <v>80</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>333</v>
+        <v>131</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11030,23 +10911,19 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>336</v>
+        <v>481</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11070,13 +10947,13 @@
         <v>80</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>80</v>
@@ -11094,7 +10971,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11112,32 +10989,32 @@
         <v>80</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>341</v>
+        <v>212</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11146,20 +11023,18 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11208,13 +11083,13 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
@@ -11223,24 +11098,24 @@
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11260,18 +11135,20 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>214</v>
+        <v>491</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>494</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11320,7 +11197,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11338,7 +11215,7 @@
         <v>80</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11349,10 +11226,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11375,15 +11252,17 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>220</v>
+        <v>497</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11432,7 +11311,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>201</v>
+        <v>496</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11444,13 +11323,13 @@
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>218</v>
+        <v>500</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>80</v>
@@ -11461,10 +11340,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11475,7 +11354,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -11487,13 +11366,13 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11532,35 +11411,37 @@
         <v>80</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC81" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>80</v>
@@ -11571,16 +11452,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11599,16 +11478,16 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>493</v>
+        <v>133</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>494</v>
+        <v>217</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>487</v>
+        <v>218</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>495</v>
+        <v>169</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11658,7 +11537,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11667,7 +11546,7 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>139</v>
@@ -11676,7 +11555,7 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>80</v>
@@ -11687,14 +11566,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11716,16 +11595,16 @@
         <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -11774,7 +11653,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11803,18 +11682,18 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>498</v>
+        <v>80</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>88</v>
@@ -11826,20 +11705,18 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>499</v>
+        <v>173</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -11888,10 +11765,10 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>88</v>
@@ -11903,24 +11780,24 @@
         <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>503</v>
+        <v>177</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11943,13 +11820,13 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>304</v>
+        <v>509</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11976,31 +11853,31 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF85" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12018,7 +11895,7 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>218</v>
+        <v>512</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>80</v>
@@ -12029,10 +11906,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12055,13 +11932,13 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>511</v>
+        <v>298</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -12088,13 +11965,13 @@
         <v>80</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>80</v>
+        <v>516</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>80</v>
@@ -12112,7 +11989,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12130,21 +12007,21 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>80</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12155,7 +12032,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>80</v>
@@ -12167,17 +12044,15 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>516</v>
+        <v>298</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12202,13 +12077,13 @@
         <v>80</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>80</v>
+        <v>524</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>80</v>
@@ -12226,13 +12101,13 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
@@ -12244,21 +12119,21 @@
         <v>80</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>520</v>
+        <v>212</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>80</v>
+        <v>525</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12269,7 +12144,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12281,18 +12156,20 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>214</v>
+        <v>298</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
@@ -12316,13 +12193,13 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>80</v>
+        <v>531</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>80</v>
+        <v>532</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>80</v>
@@ -12340,13 +12217,13 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
@@ -12358,21 +12235,21 @@
         <v>80</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>80</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12383,7 +12260,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -12395,13 +12272,13 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>220</v>
+        <v>536</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>221</v>
+        <v>537</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12428,13 +12305,13 @@
         <v>80</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>80</v>
+        <v>539</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>80</v>
@@ -12452,39 +12329,39 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>201</v>
+        <v>535</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>218</v>
+        <v>540</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>80</v>
+        <v>541</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12507,13 +12384,13 @@
         <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>134</v>
+        <v>543</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>135</v>
+        <v>544</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12540,29 +12417,31 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC90" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>203</v>
+        <v>542</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12574,31 +12453,29 @@
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="C91" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
         <v>80</v>
       </c>
@@ -12619,17 +12496,15 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -12678,75 +12553,71 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>203</v>
+        <v>549</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>80</v>
+        <v>552</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>80</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>226</v>
+        <v>80</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>227</v>
+        <v>555</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -12770,13 +12641,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>558</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -12794,39 +12665,39 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>229</v>
+        <v>554</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>131</v>
+        <v>559</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12837,7 +12708,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>80</v>
@@ -12849,15 +12720,17 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -12906,13 +12779,13 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>80</v>
@@ -12924,21 +12797,21 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>183</v>
+        <v>565</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>538</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>539</v>
+        <v>566</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12961,13 +12834,13 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>540</v>
+        <v>192</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>541</v>
+        <v>214</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>542</v>
+        <v>215</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13018,7 +12891,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>539</v>
+        <v>195</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13030,13 +12903,13 @@
         <v>80</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>543</v>
+        <v>212</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>80</v>
@@ -13047,21 +12920,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13073,15 +12946,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>545</v>
+        <v>217</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13106,13 +12981,13 @@
         <v>80</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>80</v>
@@ -13130,71 +13005,75 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>544</v>
+        <v>197</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>549</v>
+        <v>212</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>550</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>551</v>
+        <v>568</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>304</v>
+        <v>133</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>552</v>
+        <v>221</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>80</v>
       </c>
@@ -13218,13 +13097,13 @@
         <v>80</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>80</v>
@@ -13242,39 +13121,39 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>551</v>
+        <v>223</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>556</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13282,10 +13161,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>80</v>
@@ -13297,20 +13176,16 @@
         <v>80</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>304</v>
+        <v>570</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>80</v>
       </c>
@@ -13334,13 +13209,13 @@
         <v>80</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>563</v>
+        <v>80</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>80</v>
@@ -13358,13 +13233,13 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>80</v>
@@ -13373,24 +13248,24 @@
         <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>564</v>
+        <v>395</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13401,7 +13276,7 @@
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
@@ -13413,15 +13288,17 @@
         <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>579</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -13446,13 +13323,13 @@
         <v>80</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>80</v>
@@ -13470,13 +13347,13 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>80</v>
@@ -13488,21 +13365,21 @@
         <v>80</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>572</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13513,7 +13390,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>80</v>
@@ -13525,15 +13402,17 @@
         <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>585</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -13558,13 +13437,13 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>80</v>
@@ -13582,13 +13461,13 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>80</v>
@@ -13600,21 +13479,21 @@
         <v>80</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>578</v>
+        <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>579</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13637,13 +13516,13 @@
         <v>80</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>540</v>
+        <v>226</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13694,7 +13573,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13712,21 +13591,21 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>583</v>
+        <v>388</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>584</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13749,13 +13628,13 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>304</v>
+        <v>593</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13782,13 +13661,13 @@
         <v>80</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>588</v>
+        <v>80</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -13806,7 +13685,7 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13821,24 +13700,24 @@
         <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13849,7 +13728,7 @@
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>80</v>
@@ -13861,16 +13740,16 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>214</v>
+        <v>599</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13920,13 +13799,13 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>80</v>
@@ -13935,1147 +13814,15 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>80</v>
+        <v>603</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC104" s="2"/>
-      <c r="AD104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="D105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN112" t="s" s="2">
         <v>80</v>
       </c>
     </row>
